--- a/casos_teste.xlsx
+++ b/casos_teste.xlsx
@@ -2,18 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MartManHunter\Desktop\aadp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{091821AE-E7B4-4F2E-A514-717F7F0B6BD0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D820115-B3D6-4237-A291-B02A66F52F27}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{66A8E699-3BAD-4C31-A4CC-A1FF7C93CF31}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{66A8E699-3BAD-4C31-A4CC-A1FF7C93CF31}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Casobesta" sheetId="1" r:id="rId1"/>
+    <sheet name="Caso1" sheetId="3" r:id="rId2"/>
+    <sheet name="Caso2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="9">
   <si>
     <t>Lixeira</t>
   </si>
@@ -47,23 +49,23 @@
     <t>ELEV</t>
   </si>
   <si>
-    <t>PST</t>
+    <t>Sujeira</t>
   </si>
   <si>
-    <t>LIX</t>
+    <t>Robo</t>
   </si>
   <si>
-    <t>RBT</t>
+    <t>DockStation</t>
   </si>
   <si>
-    <t>lix</t>
+    <t>Dockstation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,8 +89,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,6 +132,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -286,9 +302,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -302,6 +315,12 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -618,10 +637,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F758A08-5B49-41D4-B4A1-BAA13ABF2C97}">
+  <sheetPr codeName="Planilha2"/>
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="A28" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -825,6 +845,476 @@
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" s="15"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14">
+        <v>9</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="15"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14">
+        <v>8</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="L25" s="15"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14">
+        <v>7</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="L26" s="15"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14">
+        <v>6</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="L27" s="15"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14">
+        <v>5</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="L28" s="15"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14">
+        <v>4</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="L29" s="23"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14">
+        <v>3</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="L30" s="15"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14">
+        <v>2</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K31" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="L31" s="15"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14">
+        <v>1</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="15"/>
+      <c r="E32" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="23"/>
+      <c r="G32" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="15"/>
+      <c r="K32" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="13"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20">
+        <v>1</v>
+      </c>
+      <c r="D33" s="20">
+        <v>2</v>
+      </c>
+      <c r="E33" s="20">
+        <v>3</v>
+      </c>
+      <c r="F33" s="20">
+        <v>4</v>
+      </c>
+      <c r="G33" s="20">
+        <v>5</v>
+      </c>
+      <c r="H33" s="20">
+        <v>6</v>
+      </c>
+      <c r="I33" s="20">
+        <v>7</v>
+      </c>
+      <c r="J33" s="20">
+        <v>8</v>
+      </c>
+      <c r="K33" s="20">
+        <v>9</v>
+      </c>
+      <c r="L33" s="20">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE6ADFC7-EBC8-407D-933D-0B2AB4E4E9B7}">
+  <sheetPr codeName="Planilha3"/>
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="12" width="4.77734375" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14">
+        <v>10</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
       <c r="F23" s="15" t="s">
         <v>4</v>
       </c>
@@ -835,7 +1325,9 @@
       <c r="K23" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="L23" s="15"/>
+      <c r="L23" s="19" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
@@ -863,14 +1355,18 @@
         <v>8</v>
       </c>
       <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
+      <c r="D25" s="24" t="s">
+        <v>6</v>
+      </c>
       <c r="E25" s="15"/>
       <c r="F25" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
+      <c r="I25" s="22" t="s">
+        <v>5</v>
+      </c>
       <c r="J25" s="15"/>
       <c r="K25" s="15" t="s">
         <v>4</v>
@@ -924,21 +1420,23 @@
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
-      <c r="E28" s="23" t="s">
-        <v>8</v>
+      <c r="E28" s="22" t="s">
+        <v>5</v>
       </c>
       <c r="F28" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
+      <c r="I28" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="J28" s="15"/>
       <c r="K28" s="15" t="s">
         <v>4</v>
       </c>
       <c r="L28" s="16" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -967,11 +1465,11 @@
         <v>3</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D30" s="15"/>
-      <c r="E30" s="22" t="s">
-        <v>8</v>
+      <c r="E30" s="21" t="s">
+        <v>5</v>
       </c>
       <c r="F30" s="15" t="s">
         <v>4</v>
@@ -998,7 +1496,9 @@
       </c>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
+      <c r="I31" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="J31" s="15"/>
       <c r="K31" s="15" t="s">
         <v>4</v>
@@ -1010,58 +1510,560 @@
       <c r="B32" s="14">
         <v>1</v>
       </c>
-      <c r="C32" s="18" t="s">
-        <v>7</v>
-      </c>
+      <c r="C32" s="15"/>
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="15"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="13"/>
+      <c r="B33" s="20">
+        <v>0</v>
+      </c>
+      <c r="C33" s="20">
+        <v>1</v>
+      </c>
+      <c r="D33" s="20">
+        <v>2</v>
+      </c>
+      <c r="E33" s="20">
+        <v>3</v>
+      </c>
+      <c r="F33" s="20">
+        <v>4</v>
+      </c>
+      <c r="G33" s="20">
+        <v>5</v>
+      </c>
+      <c r="H33" s="20">
+        <v>6</v>
+      </c>
+      <c r="I33" s="20">
+        <v>7</v>
+      </c>
+      <c r="J33" s="20">
+        <v>8</v>
+      </c>
+      <c r="K33" s="20">
+        <v>9</v>
+      </c>
+      <c r="L33" s="20">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6388CBA5-28C8-4D4C-9637-1B0D28A69767}">
+  <sheetPr codeName="Planilha1"/>
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="12" width="4.77734375" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14">
+        <v>10</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14">
+        <v>9</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14">
+        <v>8</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14">
+        <v>7</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="L26" s="15"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14">
+        <v>6</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="L27" s="15"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14">
+        <v>5</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J28" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="L28" s="16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14">
+        <v>4</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="L29" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14">
+        <v>3</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="L30" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14">
+        <v>2</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="L31" s="15"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14">
+        <v>1</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="G32" s="15" t="s">
         <v>3</v>
       </c>
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="L32" s="20" t="s">
-        <v>5</v>
+      <c r="J32" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="15" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="13"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21">
+      <c r="B33" s="20"/>
+      <c r="C33" s="20">
         <v>1</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="20">
         <v>2</v>
       </c>
-      <c r="E33" s="21">
-        <v>3</v>
-      </c>
-      <c r="F33" s="21">
-        <v>4</v>
-      </c>
-      <c r="G33" s="21">
+      <c r="E33" s="20">
+        <v>3</v>
+      </c>
+      <c r="F33" s="20">
+        <v>4</v>
+      </c>
+      <c r="G33" s="20">
         <v>5</v>
       </c>
-      <c r="H33" s="21">
+      <c r="H33" s="20">
         <v>6</v>
       </c>
-      <c r="I33" s="21">
+      <c r="I33" s="20">
         <v>7</v>
       </c>
-      <c r="J33" s="21">
+      <c r="J33" s="20">
         <v>8</v>
       </c>
-      <c r="K33" s="21">
+      <c r="K33" s="20">
         <v>9</v>
       </c>
-      <c r="L33" s="21">
+      <c r="L33" s="20">
         <v>10</v>
       </c>
     </row>
